--- a/Data/place_with_facts_eng.xlsx
+++ b/Data/place_with_facts_eng.xlsx
@@ -19,37 +19,1059 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Place</t>
-  </si>
-  <si>
-    <t>Murdeshwar</t>
-  </si>
-  <si>
-    <t>Facts</t>
-  </si>
-  <si>
-    <t>This is a great place</t>
-  </si>
-  <si>
-    <t>Shri Janardhana Swamy Temple</t>
-  </si>
-  <si>
-    <t>Idhu oru arumaiyana edam</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
+  <si>
+    <t>Place Name</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Meenakshi Amman Temple</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+📍 The Meenakshi Amman Temple 🛕 in Madurai, Tamil Nadu is renowned for its hall with 985 intricately carved musical pillars, known as the Musical Pillars of Meenakshi Temple. 
+🎶 When tapped, each pillar produces a different musical note, and some even mimic the sounds of different musical instruments 🎻🥁🎺. 
+🏛️ This architectural marvel showcases the advanced craftsmanship and acoustical knowledge ✨ of ancient Indian temple builders. 
+📞 DM us or contact this number – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Brihadeeshwarar Temple</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+📍 The Brihadeeswarar Temple 🛕 in Thanjavur, Tamil Nadu was built using interlocking stones without any binding material like cement or mortar, ensuring its stability for over 1,000 years 🏗️ – a testament to the Chola dynasty’s advanced engineering techniques. 
+🪨 The Brihadeeswarar Temple is the world’s first and only full granite temple, constructed using over 130,000 tons of granite ⛰️. Despite granite being extremely hard to carve and transport, this masterpiece highlights the Chola dynasty’s extraordinary engineering and craftsmanship ✨. 
+📞 DM us or contact this number – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Mahabalipuram Shore Temple</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+📍 The Shore Temple in Mahabalipuram, Tamil Nadu 🛕 is uniquely engineered to withstand the harsh coastal environment, including strong sea winds, salt erosion, and even tsunamis 🌊. Its placement and construction techniques, using massive granite blocks 🪨, have helped it survive for over 1,300 years, despite continuous exposure to the elements. 
+🌊 One of the most astonishing moments in modern history occurred during the 2004 Indian Ocean tsunami. When the massive waves receded, they temporarily exposed long-buried rock structures and submerged ruins 🏚️ near the Shore Temple. 
+🏛️ This discovery provided strong archaeological evidence supporting the ancient legend of the "Seven Pagodas," which suggests that six other temples once stood alongside the Shore Temple but were lost to the sea over centuries. 
+📞 DM us or contact this number – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Kanyakumari</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+📍 Kanyakumari Beach in Kanyakumari, Tamil Nadu 🌊 is the only place in India where you can witness the rare phenomenon of sunrise 🌅 and sunset 🌇 over the ocean from the same spot. 
+🌍 This is due to its location at the southernmost tip of the Indian subcontinent, where the Bay of Bengal, the Arabian Sea, and the Indian Ocean meet. 
+🏝️ While a few islands, such as Diu and some parts of the Andaman &amp; Nicobar Islands, may also offer a similar view due to their geographical positioning, Kanyakumari remains unique on the mainland for this breathtaking spectacle. 
+📞 DM us or contact this number – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Ramanathaswamy Temple Rameswaram</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+📍 Ramanathaswamy Temple 🛕 in Rameshwaram is home to India’s longest temple corridor, stretching an incredible 1,220 meters (4,000 feet). 
+🏛️ This corridor consists of four massive passageways surrounding the temple and features 1,212 intricately carved stone pillars 🪨, each standing over 22 feet high. 
+✨ One of the most breathtaking aspects of this corridor is its perfect symmetry and perspective—when you stand at one end, the rows of pillars create an illusion of an infinite tunnel, making it one of the most visually stunning temple structures in the world. 
+📞 DM us or contact this number – 6380013636 🚗🏕️ 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Nilgri Mountain Railway</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+🚂 The Nilgiri Mountain Railway, located in Tamil Nadu's Nilgiri district, has the steepest railway track in Asia with a gradient of 1 in 12.28 📏 on the 20-kilometer stretch between Kallar and Coonoor. This means that for every 12.28 feet traveled, the train ascends by 1 foot ⛰️. To navigate this steep incline, the railway uses a rack-and-pinion system ⚙️, making it India’s only operational rack railway. 
+🏛️ Declared a UNESCO World Heritage Site, the railway features specially designed locomotives and coaches built to handle the challenging terrain. The historic Swiss-made X-37385 locomotive 🇨🇭, equipped with the rack system, was introduced in 1921 to work on this route. Additionally, the Nilgiri Mountain Railway is India's slowest train, traveling at a speed of just 9 km/h 🐢, offering a scenic and leisurely journey through the breathtaking Nilgiri hills 🌿. 
+📞 DM us or contact this number – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Courtallam falls</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+💦 A unique fact about Courtallam (Kutrallam) Falls, located in Tamil Nadu’s Tenkasi district, is that its waters are believed to have natural medicinal properties, making it the only waterfall in India known as a "Natural Spa" 🌿. The water originates from the Western Ghats, flowing through forests rich in herbal plants and medicinal trees 🌲. 
+🌊 As it cascades down the rocks, it is believed to absorb the healing essence of rare herbs, which can rejuvenate the body, improve skin health, and even relieve ailments like arthritis and migraines 🧖‍♂️. 
+✨ For centuries, Siddha doctors and Ayurvedic practitioners have recommended bathing in Courtallam’s waterfalls for their natural therapeutic benefits, making it a one-of-a-kind health and wellness destination in Tamil Nadu 🏞️. 
+📞 DM us or contact this number – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Manjolai</t>
+  </si>
+  <si>
+    <t>Vattakanal</t>
+  </si>
+  <si>
+    <t>Pichavaram Mangrove Forest</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+🌿 Pichavaram, located in Tamil Nadu’s Chidambaram district, is home to the world’s second-largest mangrove forest, covering over 1,100 hectares of interconnected waterways, islands, and dense mangrove vegetation 🌊🌱. 
+🌀 What makes Pichavaram truly unique is its mystical hidden water tunnels, naturally formed by overhanging mangrove roots 🌳🛶. These narrow passages are so dense that sunlight barely reaches the water, creating an eerie and surreal experience for those navigating them by boat ☀️🌿. 
+🛶 Apart from its rare biodiversity, Pichavaram is one of the very few places in India where you can experience kayaking or boat rides through a maze of mangrove forests, similar to the famous Sundarbans 🌍🚣. 
+🌊 It is also a crucial natural barrier against tsunamis, having helped protect nearby villages during the 2004 Indian Ocean tsunami, proving the power of nature’s defense systems 🌪️🏝️. 
+📞 DM us or contact this number – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Mukurthi National Park</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+❄️ Mukurthi National Park, located in Tamil Nadu’s Nilgiri district, is one of the coldest places in the state, where frost, sub-zero temperatures, and occasional snowfall have been recorded—making it the only place in Tamil Nadu with near-Arctic conditions 🏔️🌨️. 
+🦌 What makes Mukurthi unique is its shola-grassland ecosystem, home to the endangered Nilgiri Tahr, a rare mountain goat found only in the Western Ghats 🌿🐐. The park also has hidden glacier-like lakes, alpine meadows, and mist-covered valleys, giving it an almost Himalayan feel in South India 🌫️🏞️. 
+🚷 Due to its extreme remoteness and strict conservation rules, Mukurthi remains one of the least explored wildlife reserves in Tamil Nadu 🌳🔒. It is also part of the Nilgiri Biosphere Reserve, a UNESCO-listed site, making it a vital hotspot for rare and endemic species 🌍🦜. 
+📞 DM us or contact this number – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Vainu Bappu Observatory</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+🔭 The Vainu Bappu Observatory (VBO), located in Tamil Nadu’s Vellore district, was India’s largest telescope until 2016, before the Devasthal Optical Telescope in Uttarakhand took the title 🌌✨. 
+🌠 Hidden in the Javadi Hills, VBO houses India’s second-largest optical telescope, with a 2.34-meter primary mirror, making it one of Asia’s most significant astronomical research centers 🏔️🔬. This observatory has contributed to major space discoveries, including the detection of a new ring around Saturn and unique studies on stars and galaxies 🪐🔎. 
+🐆 What makes VBO even more fascinating is that the site was once a dense forest full of wildlife, including leopards and snakes, before being transformed into an advanced space observatory 🌿🌟. Even today, wild animals are occasionally spotted, making it one of the rarest observatories in the world to coexist with nature 🦌🌳. 
+📞 DM us or contact this number – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Amirthi Forest</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+🌿 Amirthi Forest, located in Tamil Nadu’s Vellore district, is one of the state’s least explored tropical forests, known for its hidden waterfalls, natural rock formations, and ancient caves 🏞️🦋. 
+💧 What makes Amirthi unique is its seasonal waterfall, which appears only during the monsoon, making it a rare and mesmerizing sight 🌧️🌊. The forest is also home to medicinal plants and rare butterflies, attracting nature lovers and researchers 🌺📚. 
+⛰️ Deep inside the jungle, there are ancient caves and rock shelters, believed to have been used by hermit saints and early settlers, adding a layer of mystery and history to this untouched paradise 🏕️🕉️. 
+🌳 Despite its ecological and historical significance, Amirthi remains one of Tamil Nadu’s best-kept secrets, offering an unforgettable mix of adventure, history, and biodiversity 🌱🐾. 
+📞 DM us or contact this number – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Pulicat Lake</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+🦩 Pulicat Lake, located on the Tamil Nadu-Andhra Pradesh border, is India’s second-largest brackish water lagoon and one of South India’s most important bird sanctuaries 🌊🐦. 
+🌸 What makes Pulicat unique is its spectacular annual flamingo migration, where thousands of pink flamingos arrive between December and March, transforming the lake into a breathtaking pink paradise 🏞️💖. The lake also hosts over 100 species of birds, including pelicans, painted storks, and herons 🦢🌿. 
+🏛️ Pulicat has a fascinating history—it was once a thriving Dutch colony, and remnants of Dutch-era buildings and tombs can still be seen in the nearby village 🏰📜. 
+📞 DM us or contact this number – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Athirampakkam</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+⛏️ Athirampakkam, located near Chennai in Tamil Nadu, is home to India’s oldest known Stone Age site, dating back 385,000 years—making it older than the Egyptian pyramids and even the earliest Homo sapiens fossils 🏺📜. 
+🪨 Archaeologists discovered stone tools and artifacts here, proving that early humans lived in Tamil Nadu much earlier than previously thought 🔍🗿. This discovery challenges global theories on human migration, suggesting that advanced tool-making techniques existed in South Asia long before Europe and Africa 🌍🔬. 
+🏛️ Despite its massive historical significance, Athirampakkam remains largely unknown, with no major tourist facilities, making it a hidden treasure of India’s prehistoric past 🏞️✨. 
+📞 DM us or contact this number – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Sangagiri Fort</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+🏰 Sankagiri Fort, located in Salem district, Tamil Nadu, is one of South India’s strongest hill forts, featuring 12 concentric defensive walls—making it an unbreakable fortress 🛡️⛰️. 
+💰 What makes Sankagiri unique is its connection to Tipu Sultan, who is believed to have hidden vast amounts of treasure within the fort’s secret tunnels and underground chambers 🏺🔑. It was Tipu Sultan's military base, and though many have searched for the treasure, it remains a mystery 🤫💎. 
+⚔️ The fort also played a key role in India’s freedom struggle, serving as a base for Dheeran Chinnamalai, the Tamil warrior who fought against the British. He was later hanged at Sankagiri Fort by the British, marking it as a site of bravery and sacrifice 🇮🇳🔥. 
+📞 DM us or contact this number – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Sathanur Dam</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+🐊 Sathanur Dam, located in Tiruvannamalai district, Tamil Nadu, is not just a dam but also home to a crocodile rehabilitation center, one of the very few in the state 🏞️🐊. Here, visitors can see and learn about crocodile conservation efforts, making it a unique wildlife experience in Tamil Nadu. 
+🌿 Surrounded by the dense forests of the Eastern Ghats, Sathanur Dam is a biodiversity hotspot, attracting rare birds, butterflies, and stunning waterfalls during the monsoon 🦜🦋💦. 
+🔍 Despite its historical and ecological significance, Sathanur Dam remains an underrated getaway, offering a blend of mystery, wildlife, and natural beauty 🍃✨. 
+📞 DM us or contact this number – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Vattakottai Fort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Good Morning 🌅 
+🏰 Vattakottai Fort, located near Kanyakumari, Tamil Nadu, is the state’s only circular coastal fort, offering a breathtaking dual view of the Bay of Bengal on one side and the Western Ghats on the other 🌊⛰️. 
+🛡️ What makes Vattakottai unique is that it was built using granite blocks mixed with lime and sea shells, giving its walls exceptional durability against the harsh coastal weather 🏗️💪. 
+🔍 Despite being a military fort built by the Travancore kingdom, it has a hidden underground tunnel that is believed to connect to Padmanabhapuram Palace, adding an element of mystery 🤫🏯. 
+🎬 A famous shooting location for many Tamil movies, including the popular film Mookuthi Amman 🎥✨. 
+📞 DM us or contact this number – 6380013636 🚗🏕️ 
+</t>
+  </si>
+  <si>
+    <t>Sathuragiri Temple</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+🛕 Sathuragiri Temple, near Virudhunagar district, Tamil Nadu, is a sacred Siddhar abode where 18 Siddhars, including Agathiyar, meditated 🙏✨. 
+⚡ One of the rare Shiva temples, it houses two Lingams—Sundara Mahalingam and Santhana Mahalingam—worshipped together 🔱. 
+🌑🌕 The temple is open only on new moon (Amavasya) and full moon (Pournami) days, requiring a 10 km trek through dense forests to reach it 🌲🏔️. 
+🌿 Sathuragiri Hills is also known for its rare medicinal herbs, believed to have been used by Siddhars for powerful elixirs 🍃💎. 
+🕉️ The site is considered "Kailash on Earth," where Lord Shiva is said to reside in a mystical form 🕉️🔮. 
+📞 DM us or contact this number – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Channapatna</t>
+  </si>
+  <si>
+    <t>Good morning! 🌅 
+🧸 Channapatna – The Town of Toys in India! 🎨 
+📍 Located in the Ramanagara district of Karnataka, Channapatna is world-famous for its wooden toy industry. 
+🌳 This place is known for its handcrafted wooden toys made from durable ivory wood, ensuring 100% child safety. 
+👑 Tipu Sultan introduced these wooden toys by inviting artisans from Persia to train local craftsmen. 
+🌏 Even today, these wooden products are protected under the Geographical Indication (GI) status by the World Trade Organization (WTO). 
+📍 Want to visit this world-renowned place? Contact us for travel arrangements! 😊✨ 
+📞 DM us or contact this number – 6380013636 🚗🏕️ 
+#Zications</t>
+  </si>
+  <si>
+    <t>Kukke Subrahmanya</t>
+  </si>
+  <si>
+    <t>Good morning! 🌅 
+📍 Kukke Subrahmanya – A Sacred Place for Naga Dosha Remedies! 🐍✨ 
+📍 Located in the Dakshina Kannada district of Karnataka, Kukke Subrahmanya Temple is a renowned spiritual destination. 
+🙏 Naga Pooja – Devotees perform this ritual here to seek relief from serpent-related curses, fears, and doshas. 
+🌊 Kumaradhara River – Pilgrims consider taking a holy dip in this river before temple darshan as sacred. 
+⛰️ Shesha Parvata – A mountain that appears like a six-headed serpent, surrounding and protecting the temple! 😲 
+🪶 Sacred Mrittika Prasadam – A special medicinal soil taken from the anthill is distributed as prasadam. Pregnant women apply it on their stomachs, believing it ensures a safe childbirth. 
+📍 Want to visit this divine place? Contact us for travel arrangements! 😊✨ 
+📞 DM us or contact this number – 6380013636 🚗🏕️ 
+#Zications</t>
+  </si>
+  <si>
+    <t>Kollur Mookambika</t>
+  </si>
+  <si>
+    <t>Good morning! 🌅 
+📍 Kollur Mookambikai – A Sacred Pilgrimage to the Mother of Power! 🙏✨ 
+📍 Located in the Udupi district of Karnataka, Kollur is famous for its spiritual significance, particularly the Kollur Mookambika Temple, dedicated to Goddess Parashakti. 
+🎉 Navaratri – The grandest festival celebrated here, lasting nine days and bringing divine blessings to devotees. 
+⛰️ Kodachadri Hills – In ancient times, many sages meditated here. Sage Kola Maharishi worshiped Goddess Parashakti to protect the region from the demon Kamasura. 
+⚡ The Legend of Mookasura – Blessed by Brahma’s boon, the demon didn’t fear women. When he tried to manipulate Shiva, the Goddess silenced him, turning him into "Mookasura" (The Silent Asura). Later, when he caused destruction, she vanquished him. 
+📞 Want to visit this sacred site? DM us or contact 6380013636! 🚗🏕️ 
+#Zications</t>
+  </si>
+  <si>
+    <t>Horanadu</t>
+  </si>
+  <si>
+    <t>Good morning! 🌅 
+📍 Horanadu – The Divine Abode of Annapoorneshwari! 🙏✨ 
+📍 Located in Chikmagalur district, Karnataka, Horanadu is home to the sacred Sri Annapoorneshwari Temple. 
+🍛 Annapoorneshwari – The Goddess of Food. Devotees believe that those who worship her will never face food scarcity in their lifetime. 
+🌊 Situated on the banks of the Bhadra River, the temple enshrines the golden idol of Goddess Annapoorneshwari. According to legend, Lord Shiva, once affected by a curse, regained his strength after worshiping Goddess Annapoorneshwari here. 
+⛰️ Horanadu is near Kudremukh National Park, a biodiversity hotspot in the Western Ghats. 
+☕ The region is famous for coffee, tea, and spices like cardamom and cashews. 
+📞 Want to visit this divine place? DM us or contact 6380013636! 🚗🏕️ 
+#Zications</t>
+  </si>
+  <si>
+    <t>Chikkmangalur</t>
+  </si>
+  <si>
+    <t>Good morning! 🌅 
+📍 Chikmagalur – The Enchanting Land of Coffee Plantations! ☕🌿 
+🏞️ The highest peak in Karnataka, Mullayanagiri, is located here. 
+🌱 The name "Chikmagalur" means "Land of the Younger Daughter" (Chikka+Magala+Ooru). King Rukmangada of Sakrepatna gifted this region to his younger daughter as a wedding present, while his elder daughter received Hiremagalur. 
+🐅 Kudremukh National Park – A biodiversity hotspot known for its diverse wildlife. 
+☕ The history of coffee cultivation in India is linked to Sufi saint Baba Budan, who brought coffee beans from Yemen and introduced coffee farming here. 
+🌸 Coffee plantations bloom between March and April, offering a mesmerizing sight. 
+📞 Want to explore this breathtaking destination? DM us or contact 6380013636! 🚗🏕️ 
+#Zications</t>
+  </si>
+  <si>
+    <t>Annegudu</t>
+  </si>
+  <si>
+    <t>Good morning! 🌅 
+📍 Anegudde – The sacred land of Ganesha! 🐘🙏 
+🏞️ Anegudde is a small town in Udupi district, Karnataka. 
+🐘 "Ane" means elephant, and "Gudde" means hill – hence, it is called "Elephant Hill." 
+🛕 The 12-feet tall Anegudde Vinayaka idol is carved from a single stone, with its face made of 5 kg pure gold. 
+🔥 In ancient times, this region suffered from drought and lack of rainfall. To resolve this, Sage Agastya performed a yagna. However, a demon named Kumbhasura tried to disturb the sages. 
+⚔️ To defeat the demon, Bhima (one of the Pandavas) prayed to Lord Vinayaka and received divine weapons, with which he vanquished Kumbhasura. 
+Do you want to visit this unique temple and receive Lord Ganesha’s blessings? Contact us for travel arrangements! 😊✨ 
+📞 DM us or call – 6380013636 🚗🏕️ 
+#Zications</t>
+  </si>
+  <si>
+    <t>ISKCON</t>
+  </si>
+  <si>
+    <t>Good morning! 🌅 
+🛕 ISKCON Bengaluru – The center of devotion! ✨🙏 
+🌍 Located in Bengaluru, Karnataka, ISKCON temple is renowned for its devotion and spiritual enlightenment! 🕉️🚩 
+📖 A.C. Bhaktivedanta Swami Prabhupada 🙏 traveled to America with just a few dollars and spread Krishna Bhakti across the world. 🌿📿 
+🎶 "Hare Krishna, Hare Krishna, Krishna Krishna, Hare Hare, Hare Rama, Hare Rama, Rama Rama, Hare Hare" – a chant that now resonates globally! 🏵️🕊️ 
+🏞️ Initially, he started chanting in a park, attracting followers, which eventually led to the creation of the ISKCON movement. 💫🛕 
+📚 The temple promotes Krishna consciousness through Bhakti Yoga, Bhagavad Gita classes, and spiritual discourses. 🙌✨ 
+🏰 Highlights – Grand Rajagopuram, divine Krishna deity, and delicious prasadam! 🍛🕉️ 
+🎶 Do you want to visit this divine ISKCON temple? 
+📞 Contact us for travel arrangements – 6380013636! 🚗🌿 
+#Zications</t>
+  </si>
+  <si>
+    <t>Chamundeshwari temple</t>
+  </si>
+  <si>
+    <t>Good morning! 🌅 
+⛰️ The power shrine of Mysore – Sri Chamundeshwari Temple! 🙏✨ 
+🏞️ Located atop Chamundi Hill in Mysore, Karnataka, this temple is a significant pilgrimage site. 🛕🔱 
+🪜 Devotees can climb 1,000 steps or take a vehicle to reach the temple and seek blessings. 🚶‍♂️🚗 
+🪨 The 9-feet tall Chamundeshwari idol is a magnificent stone sculpture. 🌺🔆 
+👹 At the base of the hill stands a massive statue of Mahishasura – the demon whom the goddess vanquished! ⚔️🔥 
+🎉 The Dasara festival is celebrated grandly here! 🪔🎊 
+🐂 A giant Nandi statue along the temple path fills devotees with divine energy. 🕉️ 
+🙏 Do you want to visit this sacred power shrine? 
+📞 Contact us for travel arrangements – 6380013636! 🚗🌿 
+#Zications</t>
+  </si>
+  <si>
+    <t>Mysore Palace</t>
+  </si>
+  <si>
+    <t>Good morning! 🌅 
+🏰 Mysore Palace – A magnificent symbol of heritage! ✨🎭 
+🪵 The original palace (built in the 1890s) was entirely made of wood, but after a fire accident, a new palace was constructed! 🔥🏗️ 
+💡 On Sundays, public holidays, and during the Dasara festival, the palace is illuminated with nearly 100,000 bulbs! 💫🏮 
+🕰️ It took 15 years to complete the construction of the present-day palace – a timeless marvel! ⏳🛕 
+🌍 Mysore Palace is the second most visited monument in India after the Taj Mahal! 🕌👣 
+✨ Do you want to witness this grand palace in person? 
+📞 Contact us for travel arrangements – 6380013636! 🚗🌏 
+#Zications</t>
+  </si>
+  <si>
+    <t>Hampi Virupaksha Temple</t>
+  </si>
+  <si>
+    <t>Good morning! 🌅 
+🔱 Virupaksha Temple – A timeless marvel in Hampi! 
+🛕 Virupaksha Temple in Hampi, Karnataka, is the oldest active temple in India (6th century)! 📜 
+🔎 The temple has mysterious underground chambers that have fascinated researchers and historians! 🏺🚪 
+🏹 Ramayana connection – Legends say that Lord Rama and Sita stayed near this temple during their exile! 🔥 
+🏯 The 160-feet-high gopuram is a stunning example of Vijayanagara architecture! ✨ 
+🐘 The temple elephant "Lakshmi" blesses devotees! 🙏🐘 
+🌊 Situated near the Tungabhadra River, the temple offers a peaceful spiritual experience! 
+🪨 Hampi, a UNESCO World Heritage site, is known for its historical significance! 🏛️ 
+✨ Want to visit this ancient temple and receive divine blessings? 
+📞 Contact us for travel arrangements – 6380013636! 🚗 
+#Zications</t>
+  </si>
+  <si>
+    <t>50rs Chariott Hampi</t>
+  </si>
+  <si>
+    <t>Good morning! 🌅 
+🛕 Vijayanagara's architectural wonder – Vithala Temple, Hampi, Karnataka! 
+🚩 The iconic stone chariot is located within the Vithala Temple complex! 🏛️ 
+🦅 This temple was dedicated to Garuda, the vehicle of Lord Vishnu! 
+📜 One of India’s three famous stone chariots – found in Hampi, Konark, and Mahabalipuram! 🏯 
+💵 The magnificent stone chariot is featured on the ₹50 Indian currency note! 💰 
+✨ Want to witness this astonishing historical site? 
+📞 Contact us for travel arrangements – 6380013636! 🚗 
+#Zications</t>
+  </si>
+  <si>
+    <t>Chennakeshwara temple</t>
+  </si>
+  <si>
+    <t>Good morning! 🌅 
+🛕 A masterpiece of art – Chennakeshava Temple, Karnataka! 
+📜 A 900-year-old temple built by the Hoysala kings, dedicated to Lord Vishnu! 🏛️ 
+🌟 "Chenna" means beautiful, and "Keshava" refers to Lord Vishnu! 💖 
+🔎 Every pillar and wall of the temple is intricately carved – an artistic marvel with no empty space! 🎭 
+🏗️ Architectural brilliance – grand gateways, mesmerizing sculptures, and awe-inspiring towers! ✨ 
+✨ Want to experience this breathtaking temple? 
+📞 Contact us for travel arrangements – 6380013636! 🚗 
+#Zications</t>
+  </si>
+  <si>
+    <t>Badami Caves</t>
+  </si>
+  <si>
+    <t>Good morning! 🌅 
+⛰️ Badami Caves – Temples carved into sandstone cliffs! 
+🏛️ Located in Bagalkot district, Karnataka, the Badami cave temples date back to the 6th–8th centuries, built by the Chalukyas! 
+🪨 Rock-cut temples – These caves are completely carved into sandstone cliffs! 
+🎭 A Chalukyan-era treasure – A prime example of ancient Indian rock-cut architecture! 
+🔱 Temples of Hinduism, Jainism, and Buddhism – featuring sculptures of Vishnu, Mahavira, and Buddha! 
+🌄 Surrounded by stunning hills, ancient water reservoirs, and intriguing historical tales! 
+✨ Want to explore this ancient wonder? 
+📞 Contact us for travel arrangements – 6380013636! 🚗 
+#Zications</t>
+  </si>
+  <si>
+    <t>Aihole</t>
+  </si>
+  <si>
+    <t>Good morning! 🌅 
+🏛 Aihole – The grand procession of India’s stone temples! 
+🗿 Aihole, Karnataka – The primary site of Chalukyan architecture, dating back to the 5th century, with 125 stone temples! 
+🪨 Sculptural marvel – A uniquely carved axe-shaped rock formation is present on the northern side of the village along the Malaprabha riverbank! 
+👣 Parashurama’s footprint? – A rock in the river has an imprint resembling a human foot! According to legend, this is where Vishnu’s sixth avatar, Parashurama, washed his axe! 
+🔴 The mystery of the red soil – It is believed that the soil turned red because Parashurama washed his axe here! 
+✨ Want to visit this historical wonder? 
+📞 Contact us for travel arrangements – 6380013636! 🚗 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Pattadakkal</t>
+  </si>
+  <si>
+    <t>Good morning! 🌅 
+🏛 Pattadakkal, Karnataka – The royal temple town where coronations took place! 👑 
+🕌 Over ten temples – A fusion of North and South Indian architectural styles! 🎭 
+🪨 Pattadakkal literally means ‘Coronation Stone’ – a site where kings were crowned! 🏅 
+👑 Temples built by Chalukyan queens – Constructed to express gratitude for their husbands' victories in wars! 💛 
+📜 Recognized as a UNESCO World Heritage Site! 🌍 
+🎨 The Nalligeshwara temple – A masterpiece of sculptural excellence with a Shiva Linga that glows in sunlight! 🛕 
+🕰 Flourished in the 7th and 8th centuries as a hub of Chalukyan architecture! 🏗 
+✨ Want to visit these heritage temples and seek divine blessings? 
+📞 Contact us for travel arrangements – 6380013636! 🚗 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Gometeshwara</t>
+  </si>
+  <si>
+    <t>Good morning! 🌅 
+🗿 Gommateshwara (Bahubali) statue, Dharmasthala, Karnataka – The world’s largest monolithic statue! 🌍 
+📜 Bahubali – A symbol of renunciation and tolerance! A revered saint in Jainism who attained enlightenment by overcoming ego. 🙏 
+📜 An astonishing history – During the first Mahamastakabhisheka (grand anointing), despite numerous attempts by kings and ministers, the statue wouldn’t get wet! 😲 
+👵 A humble old woman poured water from her small vessel, and the statue was fully drenched! This became a life lesson about humility triumphing over ego. 🙏 
+🌊 To this day, the lower part of the statue’s nose remains dry! It symbolizes that no one can fully escape from ego! 🔍 
+🏛 Ready to witness this sculptural marvel and visit Dharmasthala? 
+📞 Contact us for travel arrangements – 6380013636! 🚗 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Karnataka Khadi</t>
+  </si>
+  <si>
+    <t>Good morning! 🌅 
+🇮🇳 Karnataka Khadi Gramodyoga Samyukta Sangha (KKGSS), Dharwad – The only authorized manufacturer of the Indian National Flag! 🇮🇳🏛️ 
+📜 Established in 1957, officially certified by BIS (Bureau of Indian Standards) in 2005. ✅ 
+🏛️ These flags are proudly hoisted at government buildings, embassies, and significant institutions. 🎖️ 
+🧵 Handwoven National Flag! 🇮🇳 
+Traditional Weaving: The fabric for the flag is woven using the heritage Khadi handloom technique. 
+Colors &amp; Meaning: Saffron (Sacrifice) 🟧, White (Peace) ⬜, Green (Growth) 🟩 – each representing a vital essence of the nation! 🎨 
+Ashoka Chakra: The navy blue wheel with 24 spokes at the center embodies righteousness and progress! ⚙️ 
+✨ Want to witness this symbol of national pride in person? Ready to explore Dharwad? 
+📞 Contact us for travel arrangements – 6380013636! 🚗 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Kittur Fort</t>
+  </si>
+  <si>
+    <t>Good morning! 🌅 
+🛡️ Kittur Fort – Belagavi, Karnataka 
+👑 Rani Chennamma of Kittur – The first female warrior of Karnataka who fought against the British! ⚔️🔥 
+💔 But traitors mixed cow dung with gunpowder, weakening the fort’s defenses against the British! 🏰💥 
+📜 She waged war against the British in 1824, decades before the 1857 revolt! ⏳🚩 
+🎯 In her first battle, she captured two British officers! 🏹🎖️ 
+✨ Want to visit this historic fort and relive its legacy? 
+📞 Contact us for travel arrangements – 6380013636! 🚗 
+#ZiCations</t>
+  </si>
+  <si>
+    <t>Sri Anantha Padmanabha Swamy Temple</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+📍 Sri Anantha Padmanabha Swamy Temple, Ananthagiri Hills, Andhra Pradesh – A Sacred Blend of Devotion &amp; Unity! 🙏✨ 
+Dedicated to Maha Vishnu, this ancient temple holds a unique historical significance. It was built by a Nizam ruler with a special purpose—to promote harmony among different faiths! 🏛️☮️ 
+🌿 In the Heart of Ananthagiri Hills! 
+🔹 A place where nature and spirituality merge—its serene atmosphere attracts both travelers and devotees alike 🌄. 
+🔹 The "Anantha" form of the Lord – Here, Vishnu is seen reclining on water, resting on the mighty serpent Adi Shesha 🐍🙏. 
+🔹 Nagalokam &amp; Eternal Knowledge – Many devotees visit seeking relief from Naga Dosha and for mental peace. 
+Are you ready to visit this divine destination and experience its tranquility and wonders? 🤩✨ 
+📞 DM us or contact this number – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Sri Mallikarjuna Swamy Temple</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+📍 Sri Mallikarjuna Swamy Temple, Andhra Pradesh – A Sacred Abode of Shiva! 🏛️✨ 
+This ancient temple holds a special significance as one of the 12 Jyotirlingas, making it a highly revered pilgrimage site 🙏. Devotees believe it to be as sacred as Mount Kailash itself. 
+🔥 What Makes This Temple Special? 
+🔹 The Divine Union of Shiva &amp; Shakti – Lord Mallikarjuna (Shiva) and Brahmarambika (Parvati) bless devotees together 💕. 
+🔹 Liberation from Sins – A single darshan here is believed to free one’s ancestors from past karmic debts 🙏. 
+🔹 A Pilgrimage of Devotion – Many devotees undertake a padayatra (foot journey), climbing the hills to seek blessings 🏔️. 
+🔹 Grand Rituals &amp; Festivals – The temple comes alive during Maha Shivaratri and Karthika Deepam, drawing thousands of devotees 🎇. 
+Is this mystical Jyotirlinga darshan an experience you’d like to have once in your lifetime? 🤩✨ 
+📞 DM us or contact this number – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Bhramaramba Devi Temple</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅
+📍 Bhramaramba Devi Temple, Andhra Pradesh – A Sacred Shakti Peeth! 🙏✨
+Located right next to Mallikarjuna Temple, this shrine holds great significance as one of the 18 Shakti Peethas. Here, Goddess Parvati is worshipped as Bhramarambika, meaning "The Goddess of the Divine Beehive."
+🌺 What Makes This Temple Special?
+🔹 A Powerful Shakti Peeth – It is believed that Devi Sati’s upper lip fell here, making it one of the most sacred Shakti Peethas 🔥.
+🔹 Bhramara – The Divine Bee Avatar 🐝 – According to mythology, Goddess Parvati took the form of a bee (Bhramara) to destroy a demon.
+🔹 The Union of Shiva &amp; Shakti – Since Mallikarjuna and Bhramarambika reside in the same temple complex, devotees receive the blessings of both 💕.
+A divine site where both Shiva and Shakti are worshipped together—Are you ready for this sacred experience? 🤩✨
+📞 DM us or contact this number – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Srisailam Dam</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅
+📍 Srisailam, Andhra Pradesh – Where Nature Meets Spirituality! 🌊🏞️
+Built over the Krishna River, the Srisailam Dam stands as one of India’s largest dams, attracting tourists with its majestic structure and breathtaking natural beauty.
+🌧️ A Monsoon Wonderland!
+🔹 During monsoons, as the dam overflows, the controlled release of water creates a spectacular visual treat for visitors 💦.
+🔹 Standing atop the dam, feeling the roar and power of the cascading waters, is an unforgettable experience ⚡.
+🔹 A Marvel of Nature &amp; Technology – Home to one of the largest hydroelectric projects, it plays a crucial role in power generation ⚙️.
+🔹 Temples &amp; Tourist Spots – Sri Mallikarjuna Temple, Bhramaramba Temple, and many sacred sites are located nearby, adding to its spiritual charm 🙏.
+A perfect blend of water, mountains, and divinity—Are you ready to witness the magic of Srisailam? 🤩✨
+📞 DM us or contact this number – 6380013636 🚗🏕️.</t>
+  </si>
+  <si>
+    <t>Akkamahadevi Caves</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅
+📍 Pathala Ganga, Srisailam, Andhra Pradesh – A Sacred Dip in the Krishna River! 🌊🏞️
+Located in Srisailam, Pathala Ganga is a holy waterbody of the Krishna River, deeply tied to spiritual beliefs. It is said that bathing here washes away sins and grants a blessed new beginning in the cycle of life 🙏.
+✨ Why is this Place Special?
+🔹 Sacred Bathing Ritual – Devotees believe that a dip in these waters purifies the soul 🚿.
+🔹 Scenic Beauty – Surrounded by majestic hills, the Krishna River looks breathtaking at sunrise and sunset 🌄.
+🔹 Cable Car &amp; Boat Ride – Reach Pathala Ganga via a cable car for a panoramic aerial view, or take a serene boat ride to feel closer to nature 🚠🚤.
+🔹 Spiritual Connection with Srisailam Temple – Many devotees bathe here before or after visiting the Sri Mallikarjuna Temple, completing their spiritual journey 🙌.
+A perfect blend of divinity and nature, are you ready to experience the magic of Pathala Ganga? 🤩✨
+📞 DM us or contact this number – 6380013636 🚗🏕️.</t>
+  </si>
+  <si>
+    <t>Srisailam Tiger Reserve</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅
+📍 Srisailam Tiger Reserve, Andhra Pradesh – A Wild Paradise! 🐅🌿
+Spread across 3,500 square kilometers, this is one of India’s largest tiger reserves, home to diverse landscapes, including lush forests, rugged hills, and river ecosystems.
+🌳 What Makes This Reserve Special?
+🔹 A Safe Haven for Tigers – The majestic striped king of the jungle thrives here under protected conservation efforts 🐯.
+🔹 A Wildlife Kingdom! – Beyond tigers, spot Nilgai antelopes, Sambar deer, sloth bears, wild dogs, and an array of exotic birds 🦌🐻🦜.
+🔹 The Beauty of the Krishna River – Flowing through the reserve, the Krishna River sustains the ecosystem, offering breathtaking views and crucial water sources 💦.
+If you’re a nature lover, thrill-seeker, or wildlife enthusiast, would you love to experience the wild side of Srisailam? 🤩✨
+📞 DM us or contact this number – 6380013636 🚗🏕️.</t>
+  </si>
+  <si>
+    <t>Pathala Ganga</t>
+  </si>
+  <si>
+    <t>Shikaresvara Temple</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅
+📍 Sikhareswara Temple, Srisailam, Andhra Pradesh – The Lord of the Mountain Peak! 🏔️🙏
+Situated at the highest point of Srisailam, Sikhareswara Temple is a divine destination not just for Shiva devotees, but also for nature lovers. The name "Sikharam" means peak, and here, Lord Shiva is worshipped as the Lord standing atop the mountain.
+🌄 What Makes This Temple Special?
+🔹 Breathtaking Viewpoint – From here, you can witness the entire Srisailam town and the serene Krishna River in one frame 👀🌊.
+🔹 Lord Shiva Overseeing All – It is believed that Sikhareswara (Shiva) blesses everyone from the highest peak, watching over the land below 🔱.
+🔹 Majestic Sunrise Experience – Watching the sunrise from the temple premises is a spiritual and visual delight ☀️.
+Would you like to seek blessings from Lord Shiva at this mountaintop temple? 🤩✨
+📞 DM us or contact this number – 6380013636 🚗🏕️.</t>
+  </si>
+  <si>
+    <t>Main Sanctum - Uma Maheshwari</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅
+📍 Uma Maheswara Temple, Andhra Pradesh – The Divine Union of Shiva &amp; Shakti! 🏛️🙏
+This ancient temple enshrines Lord Shiva as Uma Maheswara, where he is worshipped alongside Goddess Parvati (Uma). The presence of both Shiva and Shakti together makes this temple a powerful symbol of divine unity and harmony.
+🏛️ What Makes This Sanctum Special?
+🔹 Spiritual Aura &amp; Mystical Lighting – The sanctum’s soft divine glow creates a deeply spiritual experience for devotees 🔥.
+🔹 Ancient Inscriptions &amp; Sculptures – The temple’s pillars and towers are engraved with stories from Hindu mythology, adding to its historical and religious significance 📜.
+Would you like to witness this blend of devotion and artistic heritage? 🤩✨
+📞 DM us or contact this number – 6380013636 🚗🏕️.</t>
+  </si>
+  <si>
+    <t>Pushkarini</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅
+📍 Pushkarini Theertham, Andhra Pradesh – The Sacred Waters of Uma Maheswara Temple! 💦🙏
+Located within the Uma Maheswara Temple complex, Pushkarini Theertham is a divine temple tank believed to be a source of eternal, sacred water. The water here flows naturally from the surrounding hills and enters the tank through the mouth of Nandi, making it a spiritual and architectural wonder!
+✨ What Makes This Theertham Special?
+🔹 A Perennial Water Source – Regardless of the season, this sacred tank remains full of water throughout the year, considered a divine miracle 🌊.
+🔹 Sin-Cleansing Powers – Taking a holy dip here is believed to wash away sins and purify the soul 🚿🙏.
+Would you like to experience this sacred blessing and divine tranquility? 🤩✨
+📞 DM us or contact this number – 6380013636 🚗🏕️.</t>
+  </si>
+  <si>
+    <t>Agastya Cave</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅
+📍 Agastya Cave is located in Srisailam, Andhra Pradesh! ⛰️🙏
+This sacred cave is believed to be the place where Sage Agastya meditated upon Lord Shiva. Filled with deep serenity and spiritual energy, this spot offers devotees a truly divine experience. To reach the cave, one must climb around 120 steps, but the reward is a breathtaking spiritual encounter waiting at the top.
+✨ Why is this cave special?
+🔹 The Meditation Spot of Sage Agastya – It is said that Sage Agastya worshipped Lord Shiva here, and meditating in this place is believed to bring profound divine awareness 🧘‍♂️.
+🔹 A Small Spiritual Temple – Inside the cave, there is a dedicated shrine for Sage Agastya, enhancing the sacred ambiance 🛕.
+Would you like to experience the powerful meditation energy of Sage Agastya? 🤩✨
+📞 DM or contact this number – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Venkateswara Cave</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅
+📍 Venkateswara Cave is located in Srisailam, Andhra Pradesh! ⛰️🙏
+Inside this mysterious and spiritual cave lies a damaged idol of Lord Venkateswara, which is believed to have been created even before the famous idol in Tirumala. However, due to damage, it could not be worshipped. As a result, history says that Sage Agastya installed a Shivalinga here instead.
+✨ Why is this cave fascinating?
+🔹 A Divine Replacement – Since the Venkateswara idol was damaged, Lord Shiva was consecrated in its place, making it a unique spiritual site 🔱.
+🔹 A Cave Surrounded by Mystery – Devotees believe they can still feel the energy of the broken idol, making this place deeply mystical 🤯.
+Would you like to visit this divine place, which is believed to be older than Tirupati itself? 🤩✨
+📞 DM or contact this number – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Monolithic Nandi</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅
+📍 Lepakshi’s Monolithic Nandi is located in Andhra Pradesh! 🐂🏛️
+Just 1 km from the Veerabhadra Temple, this massive Nandi statue is famous for its astonishing size and exquisite craftsmanship. Carved from a single granite stone 🪨, it is one of the largest monolithic Nandi statues in India.
+✨ Why is this Nandi so remarkable?
+🔹 A Marvel of Monolithic Sculpture – Standing 4.5 meters tall and 8.23 meters long, this Nandi is a true masterpiece of stone carving 🎨.
+🔹 Facing the Veerabhadra Temple – Uniquely, this Nandi is perfectly aligned, gazing straight at the temple, adding to its spiritual significance 🙏.
+🔹 Where Nature Meets Art – The delicate carvings combined with the peaceful surroundings make this site an awe-inspiring place to visit 🍃.
+Would you like to witness the divine, unshakable presence of this majestic Nandi in person? 🤩✨
+📞 DM or contact this number – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Warangal Fort</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅
+📍 Warangal’s Ramappa Temple is located in Telangana! 🏛️✨
+Also known as Rudreshwara Temple, Ramappa Temple is a 13th-century architectural marvel. Recognized as a UNESCO World Heritage Site, it stands as a proud symbol of India’s rich cultural heritage 🎖️.
+✨ What makes this temple unique?
+🔹 The Mystery of "Floating" Bricks – The temple’s roof is built with lightweight bricks that float on water, showcasing an extraordinary feat of ancient engineering 🧱.
+🔹 Exquisite Sandstone Sculptures – Intricately carved sculptures depicting mythological stories and dance forms make this temple a mesmerizing sight 🎨.
+🔹 Majestic Nandi Pavilion – A beautifully carved Nandi statue sits right outside, adding to the temple’s grandeur 🐂.
+Are you ready to witness the perfect blend of art, architecture, and spirituality at this stunning temple? 🤩✨
+📞 DM or contact this number – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Srivari Mettu</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅
+📍 Srivari Mettu is located near Tirupati in Andhra Pradesh! 🛕✨
+Srivari Mettu is the shortest walking path to the Tirumala temple. With a total of 2,350 steps, this serene route passes through the lush Alipiri forest, offering a refreshing and spiritual journey 🌿.
+✨ Why is this path special?
+🔹 Takes Less Time – Compared to Alipiri Mettu, this route takes only 45-60 minutes to complete ⏳.
+🔹 Lord Venkateswara’s Divine Footprints – Devotees can seek blessings at the starting point of the path 🙏.
+🔹 Ends Close to the Temple – The path directly leads to the temple entrance, making it a convenient pilgrimage route 🚶‍♂️.
+🔹 Facilities Along the Way – Drinking water, resting spots, and food stalls are available for pilgrims 💧🍴.
+🔹 A Sacred Walk of Devotion – Walking this path is considered an act of dedication, bringing divine blessings 🌟.
+Are you ready to embark on this spiritual journey? 🤩✨
+📞 DM or contact this number – 6380013636 🚗🏕️.</t>
+  </si>
+  <si>
+    <t>Bhadrakali Temple</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅
+📍 Bhadrakali Temple in Warangal is located in Telangana! 🛕🔥
+Dedicated to Goddess Bhadrakali, this ancient temple sits on the serene banks of Bhadrakali Lake. It is one of the oldest temples dedicated to the Goddess and holds great spiritual significance in the region.
+✨ What makes this temple special?
+🔹 One of the Oldest Temples of the Goddess – A powerful Shakti Peetham that has been a center of devotion for centuries 🌺.
+🔹 Tranquil Lakeside Location – Situated on the banks of Bhadrakali Lake, the temple’s peaceful surroundings enhance its divine aura 🌊.
+🔹 Majestic Architecture – The intricately sculpted idol of the Goddess is both stunning and powerful 🎨.
+🔹 Spiritual &amp; Tourist Attraction – A significant pilgrimage site that also draws history and architecture enthusiasts 🌿.
+Come, experience the grace and blessings of Goddess Bhadrakali! 🔥🙏
+📞 DM or contact this number – 6380013636 🚗🏕️.</t>
+  </si>
+  <si>
+    <t>Bogatha Waterfall</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅
+📍 Bogatha Waterfall is located in Mulugu district, Telangana! 🌊🌿
+Nicknamed the "Niagara of Telangana", Bogatha Waterfall is the second-largest waterfall in the state. Surrounded by lush green forests, this breathtaking cascade offers a mesmerizing sight for visitors.
+✨ Why is this waterfall famous?
+🔹 "Niagara" of Telangana – The spray of water droplets from the falls creates a stunning Niagara-like experience 🌊.
+🔹 Lush Green Surroundings – The dense forests around the waterfall enhance its natural beauty 🌿🍃.
+🔹 A Hidden Gem Amidst Herbal Forests – A perfect spot for nature lovers and photographers 📸.
+🔹 Ancient Bridge Over the River – The route to the waterfall features an old architectural bridge, adding to its charm 🌉.
+Ready to witness this mesmerizing natural wonder in person? 🤩✨
+📞 DM or contact this number – 6380013636 🚗🏕️.</t>
+  </si>
+  <si>
+    <t>Lakshmi Narasimha Swamy Temple</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅
+📍 Lakshmi Narasimha Temple (Nambali Gutta) is located in Telangana! 🛕🦁✨
+Perched atop a scenic hill, the Lakshmi Narasimha Temple is a divine site offering breathtaking views of the surrounding landscape. Dedicated to Lord Narasimha, an incarnation of Lord Vishnu, this temple is a revered pilgrimage spot for devotees seeking his blessings.
+✨ Why is this temple unique?
+🔹 A Fascinating Snake Shrine – On the way to the temple, there is a serpent-shaped shrine dedicated to Naga Devata 🐍.
+🔹 Walk Through a Snake’s Body! – The snake temple is designed like a serpent, allowing devotees to walk through its belly-like tunnel, a truly mystical experience 😲.
+🔹 A Blend of Spirituality &amp; Nature – This place is not just a pilgrimage site but also a must-visit destination for tourists and photographers 📸.
+Are you ready to experience the divine grace of Narasimha? 🤩✨
+📞 DM or contact this number – 6380013636 🚗🏕️.</t>
+  </si>
+  <si>
+    <t>Thousand pillar temple</t>
+  </si>
+  <si>
+    <t>📍 Thousand Pillar Temple, Warangal – Telangana 🏛️✨
+Built in the 13th century, the Thousand Pillar Temple in Warangal is a magnificent architectural marvel of the Kakatiya dynasty. Dedicated to Lord Vishnu, Lord Shiva, and the Sun God, this temple is world-famous for its intricate carvings and grand design.
+✨ Why is this temple special?
+🔹 1,000 Sculpted Pillars – Each pillar is unique, adorned with exquisite carvings 🏛️.
+🔹 Majestic Nandi Mandapa – A beautifully sculpted Nandi statue made of black stone rests here 🐂.
+🔹 Kakatiya-Era Architecture – The temple showcases the artistic and engineering brilliance of its time 🎨.
+🔹 Ruins That Still Shine – Though parts of the temple are in ruins, the pillars and sculptures continue to dazzle visitors ✨.
+📞 DM or contact this number – 6380013636 🚗🏕️.</t>
+  </si>
+  <si>
+    <t>Valiyaparamba beach</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+🏝️ Valiyaparamba Beach, located in Kasaragod district, Kerala, is a beautiful beach near Valiyaparamba Backwaters, one of the largest backwater regions in Kerala. 🌊✨ This place is well-known for fishing and boating. 🎣🚤 
+🏰 Near this beach stands the Bekal Fort, built in the 17th century by Shivappa Nayaka of the Keladi dynasty. It was used as a strategic defense fort. 🏯🔱 
+⚓ In ancient times, this region attracted the Portuguese and the Dutch, who came here for the spice trade. 🌍🛶 
+📍 With its breathtaking sea views, historical significance, and refreshing sea breeze, Valiyaparamba Beach is a must-visit destination! 😊✨ 
+📞 DM us or contact this number – 6380013636</t>
+  </si>
+  <si>
+    <t>Parassinikadavu temple</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅
+🙏 Parassinikadavu Muthappan Temple, located in Kannur district, Kerala, 🛕 is a unique place of worship! 🙏✨
+🔹 Unlike most Hindu temples, Vedic rituals are not followed here. 🍷🐟 Toddy (palm wine) and roasted fish are offered as prasad, reflecting the deity’s deep connection with tribal traditions.
+📖 Lord Muthappan is believed to be a divine incarnation, born to a childless Brahmin couple. 🎯🌿 He challenged orthodox customs and embraced the lives of hunters and common people.
+🔹 Muthappan is closely linked to Kerala's tribal and agrarian communities. He is considered a deity who bridges both Dravidian and Aryan worship traditions.
+🤝💖 This temple is open to people of all castes and religions, making it a symbol of inclusivity, which is rare in many traditional temples.
+📍 Visit Parassinikadavu Temple, where faith, tradition, and acceptance come together beautifully! 😊✨
+📞 DM us or contact this number – 6380013636</t>
+  </si>
+  <si>
+    <t>Parassinikadavu snake park</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+🐍 Parassinikadavu Snake Park, located in Kannur district, Kerala, was established in the 1980s. Its main goal is to educate people about the true nature of snakes and promote their conservation. 🌿✨ 
+🔎 The park is home to over 150 species of snakes, including venomous ones like the King Cobra, Indian Cobra, Russell’s Viper, and Krait. 🐍 
+🦎 Along with snakes, the park also houses crocodiles, monitor lizards, turtles, and various amphibians in a safe environment. 
+🌿 Visit this unique park to see these rare creatures up close and learn more about them! 😊✨ 
+📞 DM us or contact this number – 6380013636</t>
+  </si>
+  <si>
+    <t>St. Angelo Fort Kannur</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+🏰 St. Angelo Fort, located in Kannur district, Kerala, is famous for its triangular structure and strong laterite walls. 
+🛡️ The fort is surrounded by a moat, which was built as a defensive barrier against enemies. 
+⚔️ In 1663, the Dutch captured the fort. Later, they sold it to the British, 🇬🇧 who used it as a military base until India's independence. 
+⚔️ In 1741, during the Battle of Colachel, the Travancore army defeated the Dutch. This fort played a key role in the battle. 
+🕳️ It is believed that the fort had secret underground tunnels connecting it to Thalassery Fort and other locations. 
+🏛️ Due to its historical significance, efforts have been made to include this fort in UNESCO’s heritage list. 
+⏳ Visit this fort to witness the rich history of the past! 😊✨ 
+📞 DM us or contact this number – 6380013636</t>
+  </si>
+  <si>
+    <t>Ezhimala hill</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅
+🏔️ Ezhimala – The Land of Seven Hills in Kannur district, Kerala!
+The name "Ezhimala" comes from two Malayalam words: "Ezhu" (seven) and "Mala" (hills). This place is named Ezhimala because it consists of seven hilltops.
+⚔️ A Historic Battlefield
+During the Sangam era, the Cholas and Cheras fought intense battles here, as both kingdoms wanted to control this strategic location.
+⚓ India’s Largest Naval Training Academy
+One of the most important sites here is the Indian Naval Academy, the largest naval training center in India, where future naval officers are trained.
+🛕 A Connection to the Ramayana!
+Ezhimala is believed to be a fragment of the Sanjeevani mountain that Lord Hanuman carried. According to legend, a piece of the mountain fell here while he was transporting it. 🌿✨
+📞 DM us or contact this number – 6380013636</t>
+  </si>
+  <si>
+    <t>Sree Padmanabhaswamy Temple</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅
+🏰 Incomparable Treasure in Secret Vaults! 💰✨
+The Sree Padmanabhaswamy Temple, located in Thiruvananthapuram, Kerala, holds one of the greatest hidden treasures!
+🔸 Treasure Worth Over ₹1 Lakh Crore! 🏆
+The underground vaults of the temple contain vast wealth, including gold 🪙, precious jewels 💎, and ancient artifacts 🏺.
+🔸 Rare Anantashayana Vishnu! 🛕🙏
+Lord Vishnu is in the Anantashayana (reclining) posture on Adi Shesha 🐍, made from 12,000 salagramam stones.
+🔸 The Mysterious Vault B! 🔐❌
+The temple has six underground vaults (A–F) ⛏️, but Vault B remains unopened, believed to be under divine protection 🕉️.
+🔸 The Grand Architecture of the Travancore Royal Family! 🏛️🎨
+With towering gopurams 🏯, intricate stone carvings 🪨, and stunning murals 🎭, this temple stands magnificently with a 100-foot-tall entrance tower 🚪! ✨</t>
+  </si>
+  <si>
+    <t>Guruvayur Temple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Good Morning 🌅 
+🛕 🔱 Lord Krishna in Vishnu’s Divine Form! 🙏✨ 
+The Guruvayur Temple, located in Thrissur district, Kerala, is a sacred and historic temple. 
+🔸 Conch, Discus, Mace, and Lotus! 🌸💫 
+The temple’s main deity, Lord Krishna 🏹, stands with four arms, holding a conch (🔱), discus (⚔️), mace (🔨), and lotus (🌺), resembling Vaikuntha Vishnu (🛕👑) in his divine form. 
+🔸 📜 Over 2,000 Years of History! 🏺⏳ 
+This temple is mentioned in Tamil Sangam-era texts 📖 (1st century CE) 🏺, proving that it has been historically significant for over 2,000 years 📆⏳. 
+🔸 🐘🌿 World’s Largest Elephant Sanctuary! 🏰✨ 
+The Punnathur Kotta 🏯 in Guruvayur, managed by the temple, houses 50+ elephants 🐘🐘🐘, making it the largest temple-run elephant sanctuary 🌿🛕 in the world. 
+📞 DM us or contact this number – 6380013636 
+</t>
+  </si>
+  <si>
+    <t>Silent Valley National Park</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+🌿🏞 One of India’s Last Rainforests – Silent Valley! 🌳✨ 
+The Silent Valley, located in Palakkad district, Kerala, is a unique and pristine tropical rainforest. 
+🔸 A Mountain Rainforest – No Human Habitation! 🚫🏡 
+Silent Valley is one of India’s last remaining lush rainforests, with no human settlements, allowing nature to preserve its original tranquility. 
+🔸 Home to the Endangered Lion-Tailed Macaque! 🐵✨ 
+This national park is a major habitat for the rare Lion-Tailed Macaque 🐵, found only in the ancient Western Ghats. 
+🔸 A UNESCO-Recognized Nilgiri Biosphere Reserve! 🌎🦜 
+Silent Valley is part of the Nilgiri Biosphere Reserve 🎖️, housing 1,000+ species of flowering plants 🌺, 200+ species of butterflies 🦋, and rare trees 🌲. 
+🔸 A Rainforest Without Cicadas – Why "Silent" Valley? 🤫🌳 
+Unlike other rainforests, Silent Valley lacks cicadas (🦗), the loud insects, making it eerily quiet. This is why it is called “Silent Valley”! 🔕 
+📞 DM us or contact this number – 6380013636</t>
+  </si>
+  <si>
+    <t>Athirappilly Waterfalls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Good Morning 🌅 
+🌊🏞 Kerala’s Largest Waterfall – Athirappilly! 💦✨ 
+The Athirappilly Waterfalls, located in Thrissur district, Kerala, is a breathtaking natural wonder. 
+🔸 80 Feet High, 330 Feet Wide! 🌊🏔️ 
+Athirappilly is the largest waterfall in Kerala and one of the most powerful cascades in India. 
+🔸 Originating from the Western Ghats! ⛰️🌿 
+This waterfall is formed by the Chalakudy River 💧, which originates in the Anamalai Hills ⛰️ and flows through dense rainforests 🌳 before plunging down. 
+🔸 A Popular Film Location! 🎥🎬 
+Athirappilly has been featured in blockbuster films like Baahubali ⚔️, Dil Se 🎶 (Jiya Jale song), Raavan 🎭, Punnagai Mannan 💃, and Guru 🏯, making it a favorite spot for filmmakers! 🎞️✨ 
+📞 DM us or contact this number – 6380013636 
+</t>
+  </si>
+  <si>
+    <t>Alleppey Backwaters</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+🚣‍♂️🏆 Nehru Trophy Boat Race – Kerala’s Famous Boat Race! 🌊✨ 
+The breathtaking backwaters, located in Alleppey district, Kerala, offer a unique and serene experience. 
+🔸 Famous Snake Boat Race Started in 1952! 🏁🚣‍♂️ 
+This annual snake boat race was started in 1952, named after Jawaharlal Nehru 🏆. It showcases Kerala’s rich cultural and sporting traditions 🏅. 
+🔸 Alleppey – 900+ km of Stunning Waterways! 🌊🚤 
+With over 900 km of interconnected rivers, canals, lakes, and lagoons, Alleppey forms a magical and picturesque landscape. 
+🔸 Ayurveda, Yoga, and Meditation! 🧘‍♂️🌿 
+Many houseboats 🚤 and resorts 🏡 offer Ayurvedic treatments 🌿, yoga 🧘, and meditation 🕉️, making Alleppey an ideal destination for relaxation and rejuvenation! ✨ 
+📞 DM us or contact this number – 638001363</t>
+  </si>
+  <si>
+    <t>Edakkal Caves</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+⛰️🖍 6000-Year-Old Edakkal Caves! 🏺✨ 
+Ancient historical site located in Wayanad district, Kerala 
+🔸 Prehistoric Cave Paintings! 🏺🎨 
+Rock carvings created by prehistoric humans 🗿 between 600 BCE – 1000 BCE make Edakkal one of the oldest human settlements in South India. 
+🔸 The only site in South India with Neolithic &amp; Mesolithic carvings! ⏳ 
+🔸 Breathtaking panoramic views at 1,200 meters! ⛰️🌄 
+The caves offer stunning views of forests 🌿, hills 🏔️, and tea plantations 🍃. 
+🔸 On the path to becoming a UNESCO World Heritage site! 🌍🎖️ 
+📞 DM us or contact this number – 6380013636</t>
+  </si>
+  <si>
+    <t>Kalari Kshethra</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+🥋⚔️ 3,000-Year-Old Kalaripayattu – Kerala’s Warrior Legacy! 🔥✨ 
+Kalari Kshethra, located in Munnar, Kerala, is one of the best places to witness and learn Kalaripayattu – the ancient martial art! 
+🔸 The World’s Oldest Martial Art! 🏹⚔️ 
+Kalaripayattu is believed to be the first-ever martial art 🥋 in the world and is considered the origin of all martial arts 📜. 
+🔸 Thrilling Combat Performances! 🤸‍♂️⚡ 
+Sword fights ⚔️, acrobatics 🤺, and weapon demonstrations 🛡️ showcase the agility, power, and skill of trained fighters. 
+🔸 Ancient Warrior Weapons! 🗡️🔱 
+Live demonstrations include swords ⚔️, shields 🛡️, urumi (flexible whip sword) 🌀, daggers 🗡️, and spears 🔱, preserving the age-old combat techniques of Kerala’s warriors! 💪🔥 
+📞 DM us or contact this number – 63800136</t>
+  </si>
+  <si>
+    <t>Elephant Junction</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+🐘💖 Elephant Junction, Thekkady – A Heartwarming Elephant Experience! 🌿✨ 
+🔸 Get Up Close with Elephants! 🤗🐘 
+Touch, feed, and play with these gentle giants for an unforgettable bonding experience. 
+🔸 Elephant Bath – A Memorable Moment! 🚿🐘 
+Bathe elephants in a river or pool, scrub their skin, and enjoy playful water splashes! 💦🌿 
+🔸 Short &amp; Safe Elephant Rides! 🏇🐘 
+Unlike traditional elephant rides, here the rides are short, well-monitored, and stress-free for the elephants. 
+🔸 Close to Periyar Tiger Reserve! 🌳🐅 
+Combine your elephant experience with a wildlife safari, bamboo rafting 🚣‍, and boating adventures. 
+🐘💖 A must-visit for nature and animal lovers! 🌿✨ 
+📞 DM us or contact this number – 6380013636</t>
+  </si>
+  <si>
+    <t>Periyar Lake</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+🌊🐅 120-Year-Old Periyar Lake - Kerala’s Wildlife Haven! 🌿✨ 
+Periyar Lake, located in the Idukki district of Kerala 
+🔸 An Artificial Lake Formed in 1895! 🏗️💧 
+Periyar Lake was created when the Mullaperiyar Dam was built across the Periyar River in 1895. It was constructed by British engineer John Pennycuick 🏗️ to divert water to Tamil Nadu. 
+🔸 Part of the Periyar Tiger Reserve! 🐅🌿 
+In 1934, when the Periyar Wildlife Sanctuary 🏞️ was established, the lake became an essential part of it. In 1978, it was upgraded to the Periyar Tiger Reserve 🐅, making it one of India’s top wildlife conservation areas! 🌍✨ 
+📞 DM us or contact this number – 6380013636</t>
+  </si>
+  <si>
+    <t>Chottanikkara Temple</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+🛕✨ A 1500-Year-Old Temple – Divine Power That Heals the Mind! 🙏💫 
+Chottanikkara Bhagavathy Temple, located in Ernakulam district of Kerala, is a sacred shrine known for curing mental ailments and driving away evil spirits. 
+🔸 A Place of Healing for Mental Stress! 🧠💖 
+Many devotees seek divine blessings here to find peace and relief from psychological distress 🧘‍♂️. 
+🔸 One Goddess, Three Forms! 🌺🕉️ 
+🌞 Morning – Saraswati (Goddess of Knowledge, in white attire) 
+🌅 Afternoon – Lakshmi (Goddess of Wealth, in crimson red attire) 
+🌙 Evening – Durga (Goddess of Power, in blue attire) 
+🔸 A Temple with Over 1500 Years of History! 🏛️⏳ 
+With its ancient architecture 🎨 and spiritual significance, this temple has been a center of devotion for centuries! 🙏✨ 
+📞 DM us or contact this number – 6380013636</t>
+  </si>
+  <si>
+    <t>Vizhinjam Rock Cut Cave Temple</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+🛕✨ 8th Century Ancient Rock-Cut Cave Temple! 🏛️🔱 
+One of the oldest rock-cut temples located in Thiruvananthapuram district, Kerala! 
+🔸 A temple completely carved out of a single rock! 🪨🎨 
+Showcasing the ancient Dravidian-style architecture 🏛️. 
+🔸 Unfinished yet magnificent carvings! 🛕🌿 
+Inside the cave, the walls feature intricate yet incomplete carvings of Lord Shiva 🔱 and Goddess Parvati 🌺. 
+🔸 Resemblance to Pallava rock-cut temples! 🏯 
+The temple’s architectural style is similar to Pallava-era temples of Tamil Nadu, suggesting possible influence from ancient Tamil rulers. 🏹✨ 
+📞 DM us or contact this number – 6380013636</t>
+  </si>
+  <si>
+    <t>Bekal Fort</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅
+🏰🌊 Bekal Fort – Kerala’s Largest Coastal Fortress! ✨
+Located in Kasaragod district, Kerala, this 17th-century fort was built by the Keladi Nayakas and later taken over by Tipu Sultan ⚔️ and the British 👑. Spanning 40 acres, it is one of the most well-preserved forts in Kerala.
+🔸 Secret Underground Passages! 🔦🚪
+This fort features hidden tunnels believed to have been used as escape routes during wars!
+🔸 Strong Structure Against Sea Winds! 🏰🌊
+Built using red laterite stones 🪨, the fort stands strong against the harsh coastal winds.
+🔸 Hanuman Temple – Spiritual Significance! 🙏🛕
+The Hanuman Temple at the entrance shows that the fort was not just a defense structure but also had religious importance.
+🔸 A Famous Film Location! 🎥🎶
+Bekal Fort has been featured in many Indian films, especially in the famous song "Uyire / Tu Hi Re" from the movie Bombay (1995)! 🎶✨
+A historic and scenic fort standing tall by the sea, a must-visit destination! 🌅🏰
+📞 DM us or contact this number – 6380013636</t>
+  </si>
+  <si>
+    <t>Vadakkunnathan Temple</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+🛕🔥 1000-Year-Old Shiva Temple! ✨🙏 
+Located in Kerala’s Thrissur district, this temple is believed to have been built by Parashurama. 
+🔸 Lingam Without an Idol! 🔱🕯️ 
+Unlike typical temples, there is no Shiva idol here—only a Lingam covered in ghee, which never melts! 
+🔸 Kerala’s Grandest Pooram Festival! 🎉🐘 
+Magnificent elephant processions, vibrant percussion music 🥁🎶, and dazzling fireworks 🎆 make this festival a spectacular event! 
+🔸 Four Entrances in Four Directions! 🏛️🧭 
+The temple’s four gates symbolize the four Vedas 📜. 
+🔸 Exquisite Traditional Architecture! 🎨🏯 
+Featuring wooden carvings, gabled roofs, and classic Kerala-style temple architecture. 
+A perfect blend of spirituality, history, and art! 🕉️🔥 
+📞 DM us or contact this number – 6380013636</t>
+  </si>
+  <si>
+    <t>Kovalam Beach</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+🌊🏖️ The Beautiful Kovalam Beach in Thiruvananthapuram, Kerala! – A Stunning Trio of Beaches! ✨ 
+Kovalam, Kerala’s famous crescent-shaped beach, is divided into three breathtaking sections: 
+🔸 Lighthouse Beach 🏝️ (Most Popular) 
+🔸 Hawah Beach 🌊 (Less Crowded) 
+🔸 Samudra Beach 🌿 (Quiet &amp; Serene) 
+🔸 Soft golden sands and shallow waters – perfect for relaxation! 🏊‍♂️☀️ 
+Its calm, shallow waters make it an ideal spot for both leisure seekers and travelers! 
+🔸 Gained fame in the 1920s! 👑🏖️ 
+Kovalam became popular when the Maharaja of Travancore used it as a private beach retreat. 
+🏝️ From sunrise to sunset, Kovalam will capture your heart! ✨🌊 
+📞 DM us or contact this number – 6380013636</t>
+  </si>
+  <si>
+    <t>Paramekkavu Bhagavathy Temple</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+🛕🔥 1000-Year-Old Paramekkavu Bhagavathy Temple! 🙏✨ 
+Located in the Thrissur district of Kerala, this ancient temple is dedicated to Goddess Bhagavathy (Devi/Durga). 
+🔸 A Key Participant in Thrissur Pooram! 🎉🐘 
+Paramekkavu Devaswom plays a major role in the Thrissur Pooram festival along with Thiruvambadi Devaswom. 
+🔸 Grand Elephant Procession! 🏵️🐘 
+During the festival, beautifully decorated elephants carry the idol of the goddess in a majestic procession. 
+🔸 Spectacular Kudamattam Ceremony! ☂️🎭 
+The vibrant and colorful umbrella exchange ceremony is one of the festival’s biggest highlights! 
+🎊🎶 A perfect place to witness spirituality and cultural grandeur come alive! 🙏🐘✨ 
+📞 DM us or contact this number – 6380013636</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+🌄 Manjolai Hills, located in Tamil Nadu’s Tirunelveli district, is one of India’s least explored and most restricted hill stations, hidden within the Kalakad Mundanthurai Tiger Reserve (KMTR) 🐅. Visiting requires special permission, keeping it untouched by mass tourism and preserving its pristine forests, British-era tea estates, and hidden waterfalls like Nalumukku and Kudrevatti Falls 🌿💦. 
+🏔️ Located at an elevation of 1,100–1,500 meters, it enjoys a cooler climate than Ooty and offers one of Tamil Nadu’s most scenic ghat roads, featuring mist-covered valleys and dense greenery 🌫️🌳. 
+✨ With no light pollution, Manjolai’s night skies provide a crystal-clear view of stars and galaxies, making it an ideal spot for stargazing 🌌🔭. 
+📞 DM us or contact this number – 6380013636 🚗🏕️</t>
+  </si>
+  <si>
+    <t>Very Good Morning 🌅 
+🌿 Vattakanal, located in Tamil Nadu’s Dindigul district, is a secluded hill village near Kodaikanal, often called "Little Israel" due to the large number of Israeli travelers who visit and even stay for months ✨🇮🇱. 
+🏔️ Unlike the bustling streets of Kodaikanal, Vattakanal remains peaceful, misty, and untouched by heavy tourism, offering breathtaking views of the Western Ghats and the distant Tamil Nadu plains 🌫️🌄. 
+☕ Known for its bohemian vibe, the village has small homestays, organic cafés serving Israeli cuisine, and hidden trekking trails leading to stunning viewpoints like Dolphin’s Nose and Echo Rock 🍞🥗🥾. 
+❄️ The climate remains cool and misty year-round, making it an ideal retreat for backpackers and nature lovers 🌲🌧️. 
+🌺 Adding to its mystery, Vattakanal is surrounded by dense shola forests, home to rare flora and fauna, including the elusive Bison 🦬 and the Kurinji flower, which blooms once every 12 years 🌸. 
+📞 DM us or contact this number – 6380013636 🚗🏕️</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,12 +1082,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -74,9 +1111,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -358,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -370,28 +1409,620 @@
     <col min="2" max="2" width="66.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
